--- a/application/models/imdb/models_comparing.xlsx
+++ b/application/models/imdb/models_comparing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loc/Desktop/Git/23mse43006/7.ML/FinalAssignment/application/models/imdb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAC5995-CC95-3A42-BA7E-93B095862881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA98444-D82A-514A-B30B-EC845E49EAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15260" yWindow="5800" windowWidth="30240" windowHeight="17220" xr2:uid="{217A3811-43DA-DE44-AC48-5D6C361A4B00}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17220" xr2:uid="{217A3811-43DA-DE44-AC48-5D6C361A4B00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>Epoch</t>
   </si>
@@ -243,9 +243,6 @@
     <t>parameters ??</t>
   </si>
   <si>
-    <t>I love this movies, I want to watch it</t>
-  </si>
-  <si>
     <t>? Tai sao nho nhanh hon</t>
   </si>
   <si>
@@ -270,15 +267,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -292,6 +280,39 @@
   </si>
   <si>
     <t>Pho Bert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like Spide man movie. </t>
+  </si>
+  <si>
+    <t>Like</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>movice</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>demension</t>
+  </si>
+  <si>
+    <t>[0.3, 0.5, ,. ,0.55]</t>
+  </si>
+  <si>
+    <t>Zoo</t>
+  </si>
+  <si>
+    <t>..</t>
   </si>
 </sst>
 </file>
@@ -764,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6F9589-D7C6-7D41-A297-EBBCEE48F2BE}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,7 +1014,7 @@
         <v>22</v>
       </c>
       <c r="U13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -1143,7 +1164,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="H22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="3">
@@ -1157,12 +1178,12 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -1345,7 +1366,7 @@
         <v>17</v>
       </c>
       <c r="U33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -1412,7 +1433,7 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L38" s="1">
         <v>8</v>
@@ -1429,7 +1450,7 @@
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L39" s="1">
         <v>9</v>
@@ -1498,7 +1519,7 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -1510,7 +1531,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="M44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -1587,22 +1608,22 @@
         <v>52</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1613,134 +1634,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889D8882-E75D-0A40-9AEA-A36416F9415D}">
-  <dimension ref="F5:O26"/>
+  <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:P29"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="N8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="N9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="N10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
         <v>76</v>
       </c>
-      <c r="N11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="N12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="N13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="N14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="N15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="N16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N26" t="s">
-        <v>77</v>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>